--- a/result/prediction.xlsx
+++ b/result/prediction.xlsx
@@ -656,11 +656,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>W1714WO</t>
+          <t>W1714W0</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
